--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H2">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N2">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O2">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P2">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q2">
-        <v>0.01895480912722222</v>
+        <v>0.06244743398166666</v>
       </c>
       <c r="R2">
-        <v>0.170593282145</v>
+        <v>0.562026905835</v>
       </c>
       <c r="S2">
-        <v>0.006056781581942693</v>
+        <v>0.02043934021040952</v>
       </c>
       <c r="T2">
-        <v>0.006056781581942693</v>
+        <v>0.02043934021040952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H3">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.940536</v>
       </c>
       <c r="O3">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P3">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q3">
-        <v>0.08536473694666666</v>
+        <v>0.1489400467066666</v>
       </c>
       <c r="R3">
-        <v>0.7682826325199998</v>
+        <v>1.34046042036</v>
       </c>
       <c r="S3">
-        <v>0.02727727633740218</v>
+        <v>0.0487487810385543</v>
       </c>
       <c r="T3">
-        <v>0.02727727633740218</v>
+        <v>0.0487487810385543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H4">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N4">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O4">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P4">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q4">
-        <v>0.05447222233555556</v>
+        <v>0.1040801081488889</v>
       </c>
       <c r="R4">
-        <v>0.49025000102</v>
+        <v>0.9367209733399999</v>
       </c>
       <c r="S4">
-        <v>0.01740594435718437</v>
+        <v>0.03406591118244984</v>
       </c>
       <c r="T4">
-        <v>0.01740594435718437</v>
+        <v>0.03406591118244982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H5">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J5">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.163003</v>
+        <v>0.2815866666666667</v>
       </c>
       <c r="N5">
-        <v>0.489009</v>
+        <v>0.8447600000000001</v>
       </c>
       <c r="O5">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589489</v>
       </c>
       <c r="P5">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589488</v>
       </c>
       <c r="Q5">
-        <v>0.006014539028333333</v>
+        <v>0.01812808028888889</v>
       </c>
       <c r="R5">
-        <v>0.05413085125499999</v>
+        <v>0.1631527226</v>
       </c>
       <c r="S5">
-        <v>0.001921873703194783</v>
+        <v>0.00593340633491839</v>
       </c>
       <c r="T5">
-        <v>0.001921873703194783</v>
+        <v>0.005933406334918389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
         <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N6">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O6">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P6">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q6">
-        <v>0.2459714184387778</v>
+        <v>0.4644584284043333</v>
       </c>
       <c r="R6">
-        <v>2.213742765949</v>
+        <v>4.180125855639</v>
       </c>
       <c r="S6">
-        <v>0.07859721228976757</v>
+        <v>0.152019438213191</v>
       </c>
       <c r="T6">
-        <v>0.07859721228976757</v>
+        <v>0.152019438213191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
         <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.940536</v>
       </c>
       <c r="O7">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P7">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q7">
         <v>1.107755044669333</v>
       </c>
       <c r="R7">
-        <v>9.969795402024001</v>
+        <v>9.969795402023999</v>
       </c>
       <c r="S7">
-        <v>0.3539698187844835</v>
+        <v>0.362573460335313</v>
       </c>
       <c r="T7">
-        <v>0.3539698187844835</v>
+        <v>0.3625734603353129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H8">
         <v>1.436459</v>
       </c>
       <c r="I8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J8">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N8">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O8">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P8">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q8">
-        <v>0.7068712590804446</v>
+        <v>0.7741052013951111</v>
       </c>
       <c r="R8">
-        <v>6.361841331724001</v>
+        <v>6.966946812555999</v>
       </c>
       <c r="S8">
-        <v>0.225872220293389</v>
+        <v>0.2533682901143279</v>
       </c>
       <c r="T8">
-        <v>0.225872220293389</v>
+        <v>0.2533682901143277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H9">
         <v>1.436459</v>
       </c>
       <c r="I9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J9">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.163003</v>
+        <v>0.2815866666666667</v>
       </c>
       <c r="N9">
-        <v>0.489009</v>
+        <v>0.8447600000000001</v>
       </c>
       <c r="O9">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589489</v>
       </c>
       <c r="P9">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589488</v>
       </c>
       <c r="Q9">
-        <v>0.07804904212566667</v>
+        <v>0.1348292338711111</v>
       </c>
       <c r="R9">
-        <v>0.7024413791310001</v>
+        <v>1.21346310484</v>
       </c>
       <c r="S9">
-        <v>0.02493963392942296</v>
+        <v>0.0441302453229634</v>
       </c>
       <c r="T9">
-        <v>0.02493963392942296</v>
+        <v>0.04413024532296338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H10">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I10">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J10">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N10">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O10">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P10">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q10">
-        <v>0.07374609974477778</v>
+        <v>0.04120686736699999</v>
       </c>
       <c r="R10">
-        <v>0.663714897703</v>
+        <v>0.370861806303</v>
       </c>
       <c r="S10">
-        <v>0.0235646803761688</v>
+        <v>0.0134872023943626</v>
       </c>
       <c r="T10">
-        <v>0.02356468037616881</v>
+        <v>0.0134872023943626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H11">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I11">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J11">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.940536</v>
       </c>
       <c r="O11">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P11">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q11">
-        <v>0.3321223845253333</v>
+        <v>0.09828030327199999</v>
       </c>
       <c r="R11">
-        <v>2.989101460728</v>
+        <v>0.884522729448</v>
       </c>
       <c r="S11">
-        <v>0.1061257187050726</v>
+        <v>0.03216760764178671</v>
       </c>
       <c r="T11">
-        <v>0.1061257187050726</v>
+        <v>0.03216760764178671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H12">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I12">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J12">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N12">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O12">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P12">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q12">
-        <v>0.2119311207364445</v>
+        <v>0.06867880613466666</v>
       </c>
       <c r="R12">
-        <v>1.907380086628</v>
+        <v>0.618109255212</v>
       </c>
       <c r="S12">
-        <v>0.06772004403217545</v>
+        <v>0.02247889775972742</v>
       </c>
       <c r="T12">
-        <v>0.06772004403217546</v>
+        <v>0.02247889775972741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H13">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I13">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J13">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.163003</v>
+        <v>0.2815866666666667</v>
       </c>
       <c r="N13">
-        <v>0.489009</v>
+        <v>0.8447600000000001</v>
       </c>
       <c r="O13">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589489</v>
       </c>
       <c r="P13">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589488</v>
       </c>
       <c r="Q13">
-        <v>0.02340033033966667</v>
+        <v>0.01196208318666667</v>
       </c>
       <c r="R13">
-        <v>0.210602973057</v>
+        <v>0.10765874868</v>
       </c>
       <c r="S13">
-        <v>0.007477294488242528</v>
+        <v>0.003915246348621454</v>
       </c>
       <c r="T13">
-        <v>0.00747729448824253</v>
+        <v>0.003915246348621453</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H14">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I14">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J14">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5137036666666667</v>
+        <v>0.970007</v>
       </c>
       <c r="N14">
-        <v>1.541111</v>
+        <v>2.910021</v>
       </c>
       <c r="O14">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="P14">
-        <v>0.1150126437629128</v>
+        <v>0.1871949781160357</v>
       </c>
       <c r="Q14">
-        <v>0.02126185229422222</v>
+        <v>0.003816007538</v>
       </c>
       <c r="R14">
-        <v>0.191356670648</v>
+        <v>0.034344067842</v>
       </c>
       <c r="S14">
-        <v>0.006793969515033745</v>
+        <v>0.001248997298072608</v>
       </c>
       <c r="T14">
-        <v>0.006793969515033745</v>
+        <v>0.001248997298072608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H15">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I15">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J15">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.940536</v>
       </c>
       <c r="O15">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070358</v>
       </c>
       <c r="P15">
-        <v>0.5179700842390145</v>
+        <v>0.4464687659070357</v>
       </c>
       <c r="Q15">
-        <v>0.09575471933866665</v>
+        <v>0.009101356207999999</v>
       </c>
       <c r="R15">
-        <v>0.861792474048</v>
+        <v>0.081912205872</v>
       </c>
       <c r="S15">
-        <v>0.03059727041205614</v>
+        <v>0.002978916891381769</v>
       </c>
       <c r="T15">
-        <v>0.03059727041205614</v>
+        <v>0.002978916891381768</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H16">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I16">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J16">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.476278666666667</v>
+        <v>1.616694666666667</v>
       </c>
       <c r="N16">
-        <v>4.428836</v>
+        <v>4.850084</v>
       </c>
       <c r="O16">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510337</v>
       </c>
       <c r="P16">
-        <v>0.3305226795165071</v>
+        <v>0.3119947822510336</v>
       </c>
       <c r="Q16">
-        <v>0.06110218982755556</v>
+        <v>0.006360076818666667</v>
       </c>
       <c r="R16">
-        <v>0.5499197084480001</v>
+        <v>0.05724069136799999</v>
       </c>
       <c r="S16">
-        <v>0.01952447083375824</v>
+        <v>0.002081683194528558</v>
       </c>
       <c r="T16">
-        <v>0.01952447083375824</v>
+        <v>0.002081683194528557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H17">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I17">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J17">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.163003</v>
+        <v>0.2815866666666667</v>
       </c>
       <c r="N17">
-        <v>0.489009</v>
+        <v>0.8447600000000001</v>
       </c>
       <c r="O17">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589489</v>
       </c>
       <c r="P17">
-        <v>0.03649459248156572</v>
+        <v>0.05434147372589488</v>
       </c>
       <c r="Q17">
-        <v>0.006746585501333334</v>
+        <v>0.001107761946666667</v>
       </c>
       <c r="R17">
-        <v>0.060719269512</v>
+        <v>0.00996985752</v>
       </c>
       <c r="S17">
-        <v>0.00215579036070545</v>
+        <v>0.0003625757193916527</v>
       </c>
       <c r="T17">
-        <v>0.00215579036070545</v>
+        <v>0.0003625757193916525</v>
       </c>
     </row>
   </sheetData>
